--- a/data/xlsx/test-01.xlsx
+++ b/data/xlsx/test-01.xlsx
@@ -15,16 +15,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
-    <t xml:space="preserve">first </t>
+    <t>Name</t>
   </si>
   <si>
     <t xml:space="preserve">second </t>
   </si>
   <si>
     <t>third</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Heather Domin</t>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>col-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first </t>
   </si>
   <si>
     <t>header</t>
@@ -97,7 +97,7 @@
     <font>
       <sz val="18"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="3">
@@ -109,7 +109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -124,16 +124,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -150,13 +150,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -191,9 +191,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ff595959"/>
       <rgbColor rgb="ffbfbfbf"/>
     </indexedColors>
@@ -236,10 +236,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.237064"/>
+          <c:x val="0.236681"/>
           <c:y val="0"/>
-          <c:w val="0.525873"/>
-          <c:h val="0.149946"/>
+          <c:w val="0.526638"/>
+          <c:h val="0.151844"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -255,10 +255,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0610827"/>
-          <c:y val="0.149946"/>
-          <c:w val="0.927652"/>
-          <c:h val="0.538018"/>
+          <c:x val="0.0611716"/>
+          <c:y val="0.151844"/>
+          <c:w val="0.929002"/>
+          <c:h val="0.532328"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -290,7 +290,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -306,7 +306,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -422,7 +422,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -438,7 +438,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -554,7 +554,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -570,7 +570,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -809,10 +809,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.279593"/>
-          <c:y val="0.928592"/>
-          <c:w val="0.461826"/>
-          <c:h val="0.0714075"/>
+          <c:x val="0.258164"/>
+          <c:y val="0.927847"/>
+          <c:w val="0.50617"/>
+          <c:h val="0.0721532"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -896,7 +896,7 @@
           <c:x val="0.447912"/>
           <c:y val="0"/>
           <c:w val="0.104175"/>
-          <c:h val="0.144265"/>
+          <c:h val="0.146092"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -913,9 +913,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.110948"/>
-          <c:y val="0.144265"/>
+          <c:y val="0.146092"/>
           <c:w val="0.880287"/>
-          <c:h val="0.680936"/>
+          <c:h val="0.677056"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -948,7 +948,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="28575" cap="rnd">
@@ -962,7 +962,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1214,13 +1214,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>93979</xdr:rowOff>
+      <xdr:rowOff>93978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>423828</xdr:colOff>
+      <xdr:colOff>417479</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>90593</xdr:rowOff>
+      <xdr:rowOff>60947</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1228,8 +1228,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3484879" y="4627879"/>
-        <a:ext cx="4368450" cy="2371515"/>
+        <a:off x="3484879" y="4627878"/>
+        <a:ext cx="4362101" cy="2341870"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1242,15 +1242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>623867</xdr:colOff>
+      <xdr:colOff>623866</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>31654</xdr:rowOff>
+      <xdr:rowOff>31653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>21878</xdr:colOff>
+      <xdr:colOff>21875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>121656</xdr:rowOff>
+      <xdr:rowOff>90843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1258,8 +1258,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8053367" y="1111154"/>
-        <a:ext cx="4351012" cy="2464903"/>
+        <a:off x="8053366" y="1111153"/>
+        <a:ext cx="4351010" cy="2434091"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1277,7 +1277,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>162529</xdr:colOff>
+      <xdr:colOff>162528</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
@@ -1304,8 +1304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766529" y="3784600"/>
-          <a:ext cx="3444271" cy="3517900"/>
+          <a:off x="6766528" y="3784600"/>
+          <a:ext cx="3444272" cy="3517900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1515,17 +1515,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1552,10 +1552,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1794,12 +1794,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2076,7 +2076,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2103,10 +2103,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2376,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>9</v>
@@ -2493,16 +2493,16 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>8</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2611,13 +2611,13 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="I5" t="s" s="2">
         <v>6</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2831,13 +2831,13 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="E14" t="s" s="2">
         <v>6</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3295,7 +3295,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="7">
         <v>9</v>
